--- a/FINNIFTY13August2023.xlsx
+++ b/FINNIFTY13August2023.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="7">
   <si>
     <t>14:41</t>
   </si>
@@ -81,11 +81,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="h:mm"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,10 +98,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Book Antiqua"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -550,19 +550,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,8 +695,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1507,32 +1510,32 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="A6:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
         <v>19700</v>
       </c>
       <c r="B1">
-        <v>631360</v>
+        <v>3991650</v>
       </c>
       <c r="C1">
-        <v>2261560</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>149300</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.583333333333333</v>
       </c>
       <c r="E1">
-        <v>258.2</v>
+        <v>2573.58</v>
       </c>
       <c r="F1">
-        <v>3.58</v>
+        <v>26.74</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1543,19 +1546,19 @@
         <v>19700</v>
       </c>
       <c r="B2">
-        <v>631360</v>
+        <v>24854150</v>
       </c>
       <c r="C2">
-        <v>2261560</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
+        <v>7175500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.572916666666667</v>
       </c>
       <c r="E2">
-        <v>258.2</v>
+        <v>246.38</v>
       </c>
       <c r="F2">
-        <v>3.58</v>
+        <v>3.46</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -1566,19 +1569,19 @@
         <v>19700</v>
       </c>
       <c r="B3">
-        <v>631360</v>
+        <v>23978450</v>
       </c>
       <c r="C3">
-        <v>2261560</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+        <v>8372450</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5625</v>
       </c>
       <c r="E3">
-        <v>258.2</v>
+        <v>186.4</v>
       </c>
       <c r="F3">
-        <v>3.58</v>
+        <v>2.86</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1589,19 +1592,19 @@
         <v>19700</v>
       </c>
       <c r="B4">
-        <v>631360</v>
+        <v>24581350</v>
       </c>
       <c r="C4">
-        <v>2261560</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
+        <v>9712200</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.552083333333333</v>
       </c>
       <c r="E4">
-        <v>258.2</v>
+        <v>153.1</v>
       </c>
       <c r="F4">
-        <v>3.58</v>
+        <v>2.53</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1612,21 +1615,343 @@
         <v>19700</v>
       </c>
       <c r="B5">
-        <v>631360</v>
+        <v>25697800</v>
       </c>
       <c r="C5">
-        <v>2261560</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
+        <v>8208550</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.541666666666667</v>
       </c>
       <c r="E5">
-        <v>258.2</v>
+        <v>213.06</v>
       </c>
       <c r="F5">
-        <v>3.58</v>
+        <v>3.13</v>
       </c>
       <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19700</v>
+      </c>
+      <c r="B6">
+        <v>25448650</v>
+      </c>
+      <c r="C6">
+        <v>8004350</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="E6">
+        <v>217.94</v>
+      </c>
+      <c r="F6">
+        <v>3.18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19700</v>
+      </c>
+      <c r="B7">
+        <v>25570100</v>
+      </c>
+      <c r="C7">
+        <v>8019500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E7">
+        <v>218.85</v>
+      </c>
+      <c r="F7">
+        <v>3.19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19700</v>
+      </c>
+      <c r="B8">
+        <v>23377350</v>
+      </c>
+      <c r="C8">
+        <v>8173300</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E8">
+        <v>186.02</v>
+      </c>
+      <c r="F8">
+        <v>2.86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19700</v>
+      </c>
+      <c r="B9">
+        <v>22809150</v>
+      </c>
+      <c r="C9">
+        <v>8081350</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>182.24</v>
+      </c>
+      <c r="F9">
+        <v>2.82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19700</v>
+      </c>
+      <c r="B10">
+        <v>24023450</v>
+      </c>
+      <c r="C10">
+        <v>6915550</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.489583333333333</v>
+      </c>
+      <c r="E10">
+        <v>247.38</v>
+      </c>
+      <c r="F10">
+        <v>3.47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19700</v>
+      </c>
+      <c r="B11">
+        <v>22708150</v>
+      </c>
+      <c r="C11">
+        <v>6557700</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="E11">
+        <v>246.28</v>
+      </c>
+      <c r="F11">
+        <v>3.46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19700</v>
+      </c>
+      <c r="B12">
+        <v>21455350</v>
+      </c>
+      <c r="C12">
+        <v>6541550</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="E12">
+        <v>227.99</v>
+      </c>
+      <c r="F12">
+        <v>3.28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19700</v>
+      </c>
+      <c r="B13">
+        <v>19891750</v>
+      </c>
+      <c r="C13">
+        <v>6250950</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E13">
+        <v>218.22</v>
+      </c>
+      <c r="F13">
+        <v>3.18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19700</v>
+      </c>
+      <c r="B14">
+        <v>21013900</v>
+      </c>
+      <c r="C14">
+        <v>5962600</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.447916666666667</v>
+      </c>
+      <c r="E14">
+        <v>252.43</v>
+      </c>
+      <c r="F14">
+        <v>3.52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19700</v>
+      </c>
+      <c r="B15">
+        <v>18940050</v>
+      </c>
+      <c r="C15">
+        <v>9940000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E15">
+        <v>90.54</v>
+      </c>
+      <c r="F15">
+        <v>1.91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19700</v>
+      </c>
+      <c r="B16">
+        <v>17013650</v>
+      </c>
+      <c r="C16">
+        <v>13640000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="E16">
+        <v>24.73</v>
+      </c>
+      <c r="F16">
+        <v>1.25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19700</v>
+      </c>
+      <c r="B17">
+        <v>17107700</v>
+      </c>
+      <c r="C17">
+        <v>12542600</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E17">
+        <v>36.4</v>
+      </c>
+      <c r="F17">
+        <v>1.36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19700</v>
+      </c>
+      <c r="B18">
+        <v>15990700</v>
+      </c>
+      <c r="C18">
+        <v>12473900</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E18">
+        <v>28.19</v>
+      </c>
+      <c r="F18">
+        <v>1.28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19700</v>
+      </c>
+      <c r="B19">
+        <v>14592950</v>
+      </c>
+      <c r="C19">
+        <v>11175050</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E19">
+        <v>30.59</v>
+      </c>
+      <c r="F19">
+        <v>1.31</v>
+      </c>
+      <c r="G19" t="s">
         <v>1</v>
       </c>
     </row>
